--- a/稽核/隆回/隆回现抽模版.xlsx
+++ b/稽核/隆回/隆回现抽模版.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tang\Desktop\稽核\隆回\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\bar\稽核\隆回\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207D8390-23DA-4423-8C20-EEE8DC391160}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D685BD-0954-4F7D-A122-6E1807C6DCF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15634" activeTab="1" xr2:uid="{B93A83FA-18F9-4A72-9459-8478D955D228}"/>
   </bookViews>
@@ -319,6 +319,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -336,12 +342,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -395,22 +395,22 @@
             <v>0</v>
           </cell>
           <cell r="B2" t="str">
-            <v>2021-02-06</v>
+            <v>2021-02-08</v>
           </cell>
           <cell r="C2" t="str">
-            <v>V18</v>
+            <v>钻石2</v>
           </cell>
           <cell r="D2" t="str">
-            <v>(叁仟)幕威*3+R香槟*5</v>
+            <v>方块A一条龙</v>
           </cell>
           <cell r="E2">
-            <v>3000</v>
+            <v>1780</v>
           </cell>
           <cell r="F2" t="str">
-            <v>市场部</v>
+            <v>销-8部</v>
           </cell>
           <cell r="G2" t="str">
-            <v>罗建飞</v>
+            <v>欧阳悦</v>
           </cell>
           <cell r="H2" t="str">
             <v>微信</v>
@@ -427,25 +427,25 @@
             <v>1</v>
           </cell>
           <cell r="B3" t="str">
-            <v>2021-02-06</v>
+            <v>2021-02-08</v>
           </cell>
           <cell r="C3" t="str">
-            <v>总裁5</v>
+            <v>总裁6</v>
           </cell>
           <cell r="D3" t="str">
-            <v>(叁仟)幕威*3+R香槟*5</v>
+            <v>(叁仟)方块A*22</v>
           </cell>
           <cell r="E3">
             <v>3000</v>
           </cell>
           <cell r="F3" t="str">
-            <v>市场部</v>
+            <v>礼宾部</v>
           </cell>
           <cell r="G3" t="str">
-            <v>张彪</v>
+            <v>李龙江</v>
           </cell>
           <cell r="H3" t="str">
-            <v>pos</v>
+            <v>微信,现金</v>
           </cell>
           <cell r="I3">
             <v>1</v>
@@ -459,10 +459,10 @@
             <v>2</v>
           </cell>
           <cell r="B4" t="str">
-            <v>2021-02-06</v>
+            <v>2021-02-08</v>
           </cell>
           <cell r="C4" t="str">
-            <v>V09</v>
+            <v>总裁1</v>
           </cell>
           <cell r="D4" t="str">
             <v>(叁仟)幕威*3+R香槟*5</v>
@@ -471,10 +471,10 @@
             <v>3000</v>
           </cell>
           <cell r="F4" t="str">
-            <v>销-2部</v>
+            <v>销-8部</v>
           </cell>
           <cell r="G4" t="str">
-            <v>郑小龙</v>
+            <v>张永明</v>
           </cell>
           <cell r="H4" t="str">
             <v>微信</v>
@@ -491,10 +491,10 @@
             <v>3</v>
           </cell>
           <cell r="B5" t="str">
-            <v>2021-02-06</v>
+            <v>2021-02-08</v>
           </cell>
           <cell r="C5" t="str">
-            <v>总裁2</v>
+            <v>钻石9</v>
           </cell>
           <cell r="D5" t="str">
             <v>(叁仟)幕威*3+R香槟*5</v>
@@ -503,13 +503,13 @@
             <v>3000</v>
           </cell>
           <cell r="F5" t="str">
-            <v>舞台部</v>
+            <v>市场部</v>
           </cell>
           <cell r="G5" t="str">
-            <v>吴元龙</v>
+            <v>郭冰</v>
           </cell>
           <cell r="H5" t="str">
-            <v>pos,会员本金</v>
+            <v>会员本金,微信</v>
           </cell>
           <cell r="I5">
             <v>1</v>
@@ -523,10 +523,10 @@
             <v>4</v>
           </cell>
           <cell r="B6" t="str">
-            <v>2021-02-06</v>
+            <v>2021-02-08</v>
           </cell>
           <cell r="C6" t="str">
-            <v>钻石2</v>
+            <v>PARTY2</v>
           </cell>
           <cell r="D6" t="str">
             <v>(叁仟)幕威*3+R香槟*5</v>
@@ -535,13 +535,13 @@
             <v>3000</v>
           </cell>
           <cell r="F6" t="str">
-            <v>会员中心</v>
+            <v>销-3部</v>
           </cell>
           <cell r="G6" t="str">
-            <v>黄彩芳</v>
+            <v>孙先泽</v>
           </cell>
           <cell r="H6" t="str">
-            <v>pos,会员本金</v>
+            <v>会员本金</v>
           </cell>
           <cell r="I6">
             <v>1</v>
@@ -555,42 +555,298 @@
             <v>5</v>
           </cell>
           <cell r="B7" t="str">
-            <v>2021-02-06</v>
+            <v>2021-02-08</v>
           </cell>
           <cell r="C7" t="str">
-            <v>V13</v>
+            <v>总裁9</v>
           </cell>
           <cell r="D7" t="str">
-            <v>(壹万)慕威*20+经典黑桃A</v>
+            <v>(叁仟)幕威*3+R香槟*5</v>
           </cell>
           <cell r="E7">
-            <v>10000</v>
+            <v>3000</v>
           </cell>
           <cell r="F7" t="str">
-            <v>销-8部</v>
+            <v>销-9部</v>
           </cell>
           <cell r="G7" t="str">
-            <v>蒋海念</v>
+            <v>刘玲</v>
           </cell>
           <cell r="H7" t="str">
-            <v>会员本金</v>
+            <v>pos</v>
           </cell>
           <cell r="I7">
             <v>1</v>
           </cell>
           <cell r="J7">
-            <v>200</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="A8" t="str">
+          <cell r="A8">
+            <v>6</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>2021-02-08</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>PARTY11</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>(叁仟)幕威*3+R香槟*5</v>
+          </cell>
+          <cell r="E8">
+            <v>3000</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>销-9部</v>
+          </cell>
+          <cell r="G8" t="str">
+            <v>廖细水</v>
+          </cell>
+          <cell r="H8" t="str">
+            <v>会员本金,现金</v>
+          </cell>
+          <cell r="I8">
+            <v>1</v>
+          </cell>
+          <cell r="J8">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>7</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>2021-02-08</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>PARTY8</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>(叁仟)幕威*3+R香槟*5</v>
+          </cell>
+          <cell r="E9">
+            <v>3000</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v>市场部</v>
+          </cell>
+          <cell r="G9" t="str">
+            <v>张彪</v>
+          </cell>
+          <cell r="H9" t="str">
+            <v>会员本金</v>
+          </cell>
+          <cell r="I9">
+            <v>1</v>
+          </cell>
+          <cell r="J9">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>8</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>2021-02-08</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>V17</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>(叁仟)幕威*3+R香槟*5</v>
+          </cell>
+          <cell r="E10">
+            <v>3000</v>
+          </cell>
+          <cell r="F10" t="str">
+            <v>销-8部</v>
+          </cell>
+          <cell r="G10" t="str">
+            <v>颜庆发</v>
+          </cell>
+          <cell r="H10" t="str">
+            <v>微信</v>
+          </cell>
+          <cell r="I10">
+            <v>1</v>
+          </cell>
+          <cell r="J10">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>9</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>2021-02-08</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>PARTY9</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>(叁仟)幕威*3+R香槟*5</v>
+          </cell>
+          <cell r="E11">
+            <v>3000</v>
+          </cell>
+          <cell r="F11" t="str">
+            <v>市场部</v>
+          </cell>
+          <cell r="G11" t="str">
+            <v>陈健</v>
+          </cell>
+          <cell r="H11" t="str">
+            <v>会员本金</v>
+          </cell>
+          <cell r="I11">
+            <v>1</v>
+          </cell>
+          <cell r="J11">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>10</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>2021-02-08</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>PARTY1</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>(叁仟)幕威*3+R香槟*5</v>
+          </cell>
+          <cell r="E12">
+            <v>3000</v>
+          </cell>
+          <cell r="F12" t="str">
+            <v>市场部</v>
+          </cell>
+          <cell r="G12" t="str">
+            <v>陈健</v>
+          </cell>
+          <cell r="H12" t="str">
+            <v>pos,会员本金</v>
+          </cell>
+          <cell r="I12">
+            <v>1</v>
+          </cell>
+          <cell r="J12">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>11</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>2021-02-08</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>888</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>(叁仟)幕威*3+R香槟*5</v>
+          </cell>
+          <cell r="E13">
+            <v>3000</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>销-8部</v>
+          </cell>
+          <cell r="G13" t="str">
+            <v>蒋海念</v>
+          </cell>
+          <cell r="H13" t="str">
+            <v>微信</v>
+          </cell>
+          <cell r="I13">
+            <v>1</v>
+          </cell>
+          <cell r="J13">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>12</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>2021-02-08</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>888</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>(叁仟)幕威*3+R香槟*5</v>
+          </cell>
+          <cell r="E14">
+            <v>3000</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>销-8部</v>
+          </cell>
+          <cell r="G14" t="str">
+            <v>蒋海念</v>
+          </cell>
+          <cell r="H14" t="str">
+            <v>会员本金,微信</v>
+          </cell>
+          <cell r="I14">
+            <v>1</v>
+          </cell>
+          <cell r="J14">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>13</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>2021-02-08</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>V05</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>(伍仟)宝诗来*2+香槟*1</v>
+          </cell>
+          <cell r="E15">
+            <v>5000</v>
+          </cell>
+          <cell r="F15" t="str">
+            <v>销-3部</v>
+          </cell>
+          <cell r="G15" t="str">
+            <v>范贵长</v>
+          </cell>
+          <cell r="H15" t="str">
+            <v>会员本金</v>
+          </cell>
+          <cell r="I15">
+            <v>1</v>
+          </cell>
+          <cell r="J15">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
             <v>合计</v>
           </cell>
-          <cell r="I8">
-            <v>6</v>
-          </cell>
-          <cell r="J8">
-            <v>450</v>
+          <cell r="I16">
+            <v>14</v>
+          </cell>
+          <cell r="J16">
+            <v>750</v>
           </cell>
         </row>
       </sheetData>
@@ -917,17 +1173,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -1025,17 +1281,17 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1050,10 +1306,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3590BCFA-C256-4485-B9F0-204432861D07}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -1074,22 +1330,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:12" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="1:12" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1127,33 +1383,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="16" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="str">
         <f>IFERROR(VLOOKUP($A3,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
-        <v>2021-02-06</v>
+        <v>2021-02-08</v>
       </c>
       <c r="C3" s="3" t="str">
         <f>IFERROR(VLOOKUP($A3,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
-        <v>V18</v>
+        <v>钻石2</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>IFERROR(VLOOKUP($A3,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
-        <v>(叁仟)幕威*3+R香槟*5</v>
+        <v>方块A一条龙</v>
       </c>
       <c r="E3" s="3">
         <f>IFERROR(VLOOKUP($A3,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
-        <v>3000</v>
+        <v>1780</v>
       </c>
       <c r="F3" s="3" t="str">
         <f>IFERROR(VLOOKUP($A3,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
-        <v>市场部</v>
+        <v>销-8部</v>
       </c>
       <c r="G3" s="3" t="str">
         <f>IFERROR(VLOOKUP($A3,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
-        <v>罗建飞</v>
+        <v>欧阳悦</v>
       </c>
       <c r="H3" s="3" t="str">
         <f>IFERROR(VLOOKUP($A3,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
@@ -1170,21 +1426,21 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" s="16" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="str">
         <f>IFERROR(VLOOKUP($A4,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
-        <v>2021-02-06</v>
+        <v>2021-02-08</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>IFERROR(VLOOKUP($A4,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
-        <v>总裁5</v>
+        <v>总裁6</v>
       </c>
       <c r="D4" s="3" t="str">
         <f>IFERROR(VLOOKUP($A4,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
-        <v>(叁仟)幕威*3+R香槟*5</v>
+        <v>(叁仟)方块A*22</v>
       </c>
       <c r="E4" s="3">
         <f>IFERROR(VLOOKUP($A4,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
@@ -1192,15 +1448,15 @@
       </c>
       <c r="F4" s="3" t="str">
         <f>IFERROR(VLOOKUP($A4,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
-        <v>市场部</v>
+        <v>礼宾部</v>
       </c>
       <c r="G4" s="3" t="str">
         <f>IFERROR(VLOOKUP($A4,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
-        <v>张彪</v>
+        <v>李龙江</v>
       </c>
       <c r="H4" s="3" t="str">
         <f>IFERROR(VLOOKUP($A4,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
-        <v>pos</v>
+        <v>微信,现金</v>
       </c>
       <c r="I4" s="3">
         <f>IFERROR(VLOOKUP($A4,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
@@ -1213,17 +1469,17 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" s="16" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="str">
         <f>IFERROR(VLOOKUP($A5,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
-        <v>2021-02-06</v>
+        <v>2021-02-08</v>
       </c>
       <c r="C5" s="3" t="str">
         <f>IFERROR(VLOOKUP($A5,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
-        <v>V09</v>
+        <v>总裁1</v>
       </c>
       <c r="D5" s="3" t="str">
         <f>IFERROR(VLOOKUP($A5,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
@@ -1235,11 +1491,11 @@
       </c>
       <c r="F5" s="3" t="str">
         <f>IFERROR(VLOOKUP($A5,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
-        <v>销-2部</v>
+        <v>销-8部</v>
       </c>
       <c r="G5" s="3" t="str">
         <f>IFERROR(VLOOKUP($A5,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
-        <v>郑小龙</v>
+        <v>张永明</v>
       </c>
       <c r="H5" s="3" t="str">
         <f>IFERROR(VLOOKUP($A5,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
@@ -1256,17 +1512,17 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" s="16" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="str">
         <f>IFERROR(VLOOKUP($A6,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
-        <v>2021-02-06</v>
+        <v>2021-02-08</v>
       </c>
       <c r="C6" s="3" t="str">
         <f>IFERROR(VLOOKUP($A6,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
-        <v>总裁2</v>
+        <v>钻石9</v>
       </c>
       <c r="D6" s="3" t="str">
         <f>IFERROR(VLOOKUP($A6,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
@@ -1278,15 +1534,15 @@
       </c>
       <c r="F6" s="3" t="str">
         <f>IFERROR(VLOOKUP($A6,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
-        <v>舞台部</v>
+        <v>市场部</v>
       </c>
       <c r="G6" s="3" t="str">
         <f>IFERROR(VLOOKUP($A6,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
-        <v>吴元龙</v>
+        <v>郭冰</v>
       </c>
       <c r="H6" s="3" t="str">
         <f>IFERROR(VLOOKUP($A6,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
-        <v>pos,会员本金</v>
+        <v>会员本金,微信</v>
       </c>
       <c r="I6" s="3">
         <f>IFERROR(VLOOKUP($A6,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
@@ -1299,17 +1555,17 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" s="16" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="str">
         <f>IFERROR(VLOOKUP($A7,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
-        <v>2021-02-06</v>
+        <v>2021-02-08</v>
       </c>
       <c r="C7" s="3" t="str">
         <f>IFERROR(VLOOKUP($A7,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
-        <v>钻石2</v>
+        <v>PARTY2</v>
       </c>
       <c r="D7" s="3" t="str">
         <f>IFERROR(VLOOKUP($A7,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
@@ -1321,15 +1577,15 @@
       </c>
       <c r="F7" s="3" t="str">
         <f>IFERROR(VLOOKUP($A7,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
-        <v>会员中心</v>
+        <v>销-3部</v>
       </c>
       <c r="G7" s="3" t="str">
         <f>IFERROR(VLOOKUP($A7,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
-        <v>黄彩芳</v>
+        <v>孙先泽</v>
       </c>
       <c r="H7" s="3" t="str">
         <f>IFERROR(VLOOKUP($A7,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
-        <v>pos,会员本金</v>
+        <v>会员本金</v>
       </c>
       <c r="I7" s="3">
         <f>IFERROR(VLOOKUP($A7,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
@@ -1342,37 +1598,37 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" s="16" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="str">
         <f>IFERROR(VLOOKUP($A8,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
-        <v>2021-02-06</v>
+        <v>2021-02-08</v>
       </c>
       <c r="C8" s="3" t="str">
         <f>IFERROR(VLOOKUP($A8,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
-        <v>V13</v>
+        <v>总裁9</v>
       </c>
       <c r="D8" s="3" t="str">
         <f>IFERROR(VLOOKUP($A8,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
-        <v>(壹万)慕威*20+经典黑桃A</v>
+        <v>(叁仟)幕威*3+R香槟*5</v>
       </c>
       <c r="E8" s="3">
         <f>IFERROR(VLOOKUP($A8,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="F8" s="3" t="str">
         <f>IFERROR(VLOOKUP($A8,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
-        <v>销-8部</v>
+        <v>销-9部</v>
       </c>
       <c r="G8" s="3" t="str">
         <f>IFERROR(VLOOKUP($A8,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
-        <v>蒋海念</v>
+        <v>刘玲</v>
       </c>
       <c r="H8" s="3" t="str">
         <f>IFERROR(VLOOKUP($A8,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
-        <v>会员本金</v>
+        <v>pos</v>
       </c>
       <c r="I8" s="3">
         <f>IFERROR(VLOOKUP($A8,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
@@ -1380,53 +1636,397 @@
       </c>
       <c r="J8" s="3">
         <f>IFERROR(VLOOKUP($A8,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" s="16" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+    <row r="9" spans="1:12" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A9,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>2021-02-08</v>
+      </c>
+      <c r="C9" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A9,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>PARTY11</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A9,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>(叁仟)幕威*3+R香槟*5</v>
+      </c>
+      <c r="E9" s="3">
+        <f>IFERROR(VLOOKUP($A9,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>3000</v>
+      </c>
+      <c r="F9" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A9,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>销-9部</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A9,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>廖细水</v>
+      </c>
+      <c r="H9" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A9,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>会员本金,现金</v>
+      </c>
       <c r="I9" s="3">
-        <f ca="1">SUM(OFFSET(I2,1,):OFFSET(I9,-1,))</f>
-        <v>6</v>
+        <f>IFERROR(VLOOKUP($A9,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>1</v>
       </c>
       <c r="J9" s="3">
-        <f ca="1">SUM(OFFSET($J$2,1,):OFFSET(J9,-1,))</f>
-        <v>450</v>
+        <f>IFERROR(VLOOKUP($A9,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>50</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:12" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A10,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>2021-02-08</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A10,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>PARTY8</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A10,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>(叁仟)幕威*3+R香槟*5</v>
+      </c>
+      <c r="E10" s="3">
+        <f>IFERROR(VLOOKUP($A10,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>3000</v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A10,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>市场部</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A10,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>张彪</v>
+      </c>
+      <c r="H10" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A10,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>会员本金</v>
+      </c>
+      <c r="I10" s="3">
+        <f>IFERROR(VLOOKUP($A10,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <f>IFERROR(VLOOKUP($A10,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>50</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A11,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>2021-02-08</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A11,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>V17</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A11,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>(叁仟)幕威*3+R香槟*5</v>
+      </c>
+      <c r="E11" s="3">
+        <f>IFERROR(VLOOKUP($A11,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>3000</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A11,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>销-8部</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A11,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>颜庆发</v>
+      </c>
+      <c r="H11" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A11,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>微信</v>
+      </c>
+      <c r="I11" s="3">
+        <f>IFERROR(VLOOKUP($A11,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
+        <f>IFERROR(VLOOKUP($A11,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>50</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A12,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>2021-02-08</v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A12,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>PARTY9</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A12,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>(叁仟)幕威*3+R香槟*5</v>
+      </c>
+      <c r="E12" s="3">
+        <f>IFERROR(VLOOKUP($A12,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>3000</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A12,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>市场部</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A12,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>陈健</v>
+      </c>
+      <c r="H12" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A12,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>会员本金</v>
+      </c>
+      <c r="I12" s="3">
+        <f>IFERROR(VLOOKUP($A12,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
+        <f>IFERROR(VLOOKUP($A12,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>50</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A13,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>2021-02-08</v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A13,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>PARTY1</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A13,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>(叁仟)幕威*3+R香槟*5</v>
+      </c>
+      <c r="E13" s="3">
+        <f>IFERROR(VLOOKUP($A13,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>3000</v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A13,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>市场部</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A13,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>陈健</v>
+      </c>
+      <c r="H13" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A13,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>pos,会员本金</v>
+      </c>
+      <c r="I13" s="3">
+        <f>IFERROR(VLOOKUP($A13,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <f>IFERROR(VLOOKUP($A13,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>50</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A14,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>2021-02-08</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A14,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>888</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A14,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>(叁仟)幕威*3+R香槟*5</v>
+      </c>
+      <c r="E14" s="3">
+        <f>IFERROR(VLOOKUP($A14,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>3000</v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A14,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>销-8部</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A14,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>蒋海念</v>
+      </c>
+      <c r="H14" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A14,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>微信</v>
+      </c>
+      <c r="I14" s="3">
+        <f>IFERROR(VLOOKUP($A14,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <f>IFERROR(VLOOKUP($A14,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>50</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A15,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>2021-02-08</v>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A15,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>888</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A15,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>(叁仟)幕威*3+R香槟*5</v>
+      </c>
+      <c r="E15" s="3">
+        <f>IFERROR(VLOOKUP($A15,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>3000</v>
+      </c>
+      <c r="F15" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A15,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>销-8部</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A15,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>蒋海念</v>
+      </c>
+      <c r="H15" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A15,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>会员本金,微信</v>
+      </c>
+      <c r="I15" s="3">
+        <f>IFERROR(VLOOKUP($A15,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <f>IFERROR(VLOOKUP($A15,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>50</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A16,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>2021-02-08</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A16,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>V05</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A16,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>(伍仟)宝诗来*2+香槟*1</v>
+      </c>
+      <c r="E16" s="3">
+        <f>IFERROR(VLOOKUP($A16,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>5000</v>
+      </c>
+      <c r="F16" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A16,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>销-3部</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A16,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>范贵长</v>
+      </c>
+      <c r="H16" s="3" t="str">
+        <f>IFERROR(VLOOKUP($A16,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>会员本金</v>
+      </c>
+      <c r="I16" s="3">
+        <f>IFERROR(VLOOKUP($A16,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <f>IFERROR(VLOOKUP($A16,[1]销售现抽!$A$2:$J$50,COLUMN(),0),0)</f>
+        <v>100</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3">
+        <f ca="1">SUM(OFFSET(I2,1,):OFFSET(I17,-1,))</f>
+        <v>14</v>
+      </c>
+      <c r="J17" s="3">
+        <f ca="1">SUM(OFFSET($J$2,1,):OFFSET(J17,-1,))</f>
+        <v>750</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A18:L18"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1460,20 +2060,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="34.75" x14ac:dyDescent="0.8">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -1794,20 +2394,20 @@
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
